--- a/results/benchmark_set_leader/chart.xlsx
+++ b/results/benchmark_set_leader/chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\debian-development\home\unixuser\code\cs739-p2-replicated-database\results\benchmark_set_leader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A124ED-72FD-4D01-AA29-DF3FA59ED054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB3CD55-457B-42B0-B106-56EA3CDCBF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-3015" windowWidth="21840" windowHeight="38190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -991,9 +991,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14101456578087701"/>
+          <c:x val="0.10560689538327583"/>
           <c:y val="0.13477636747613803"/>
-          <c:w val="0.82915782371604629"/>
+          <c:w val="0.8645655106448229"/>
           <c:h val="0.70795997822029622"/>
         </c:manualLayout>
       </c:layout>
@@ -1649,9 +1649,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.78071890339707584"/>
-          <c:y val="0.92360667640297178"/>
-          <c:w val="0.21928113871685284"/>
+          <c:x val="0.72352176682401037"/>
+          <c:y val="0.92360652735168869"/>
+          <c:w val="0.26013622628317995"/>
           <c:h val="7.537742525003413E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2855,15 +2855,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>232172</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>261599</xdr:colOff>
+      <xdr:colOff>257517</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>161585</xdr:rowOff>
+      <xdr:rowOff>160224</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3158,8 +3158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
